--- a/MMT Dashboard/51134-2025-01-Historical-Budget-Data.xlsx
+++ b/MMT Dashboard/51134-2025-01-Historical-Budget-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewadams/Documents/GitHub/Economics/MMT Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAFB5556-0ED6-E549-A2C5-172BD40242A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AB5BAD-81F7-184A-88E2-5B5CA0AC13AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="500" windowWidth="15820" windowHeight="15100" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -732,7 +732,7 @@
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/MMT Dashboard/51134-2025-01-Historical-Budget-Data.xlsx
+++ b/MMT Dashboard/51134-2025-01-Historical-Budget-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewadams/Documents/GitHub/Economics/MMT Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AB5BAD-81F7-184A-88E2-5B5CA0AC13AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BC6C65-A255-3144-8FA1-4865B36E52DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="500" windowWidth="15820" windowHeight="15100" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10620" yWindow="500" windowWidth="15820" windowHeight="15100" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -731,8 +731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I71" sqref="I71:J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13039,8 +13040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72:D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15805,7 +15806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A71"/>
     </sheetView>
   </sheetViews>
